--- a/Диаграмма Ганта.xlsx
+++ b/Диаграмма Ганта.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P1lan\Documents\GitHub\Proekt\ПП\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P1lan\Desktop\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462E2D22-835D-4757-8E66-1567CC22D0FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873959C8-DD68-4F40-A817-8000C301809E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="600" windowWidth="21600" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Диаграмма Ганта" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="62">
   <si>
     <t>НАЗВАНИЕ ПРОЕКТА</t>
   </si>
@@ -414,7 +414,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,6 +515,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1266,9 +1272,6 @@
     <xf numFmtId="9" fontId="27" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="27" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1340,6 +1343,34 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1357,31 +1388,6 @@
     <xf numFmtId="0" fontId="21" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1393,13 +1399,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="27" fillId="18" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1769,7 +1775,7 @@
       <pane xSplit="8" ySplit="10" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -1863,21 +1869,21 @@
     </row>
     <row r="2" spans="1:69" ht="21" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
       <c r="O2" s="36"/>
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
@@ -2007,41 +2013,41 @@
     </row>
     <row r="4" spans="1:69" ht="21" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="101" t="s">
+      <c r="C4" s="103"/>
+      <c r="D4" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="108" t="s">
+      <c r="I4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="110" t="s">
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
-      <c r="V4" s="109"/>
-      <c r="W4" s="109"/>
-      <c r="X4" s="109"/>
-      <c r="Y4" s="109"/>
-      <c r="Z4" s="109"/>
-      <c r="AA4" s="109"/>
-      <c r="AB4" s="109"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="120"/>
+      <c r="V4" s="120"/>
+      <c r="W4" s="120"/>
+      <c r="X4" s="120"/>
+      <c r="Y4" s="120"/>
+      <c r="Z4" s="120"/>
+      <c r="AA4" s="120"/>
+      <c r="AB4" s="120"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="10"/>
       <c r="AE4" s="10"/>
@@ -2086,40 +2092,40 @@
     </row>
     <row r="5" spans="1:69" ht="21" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="102" t="s">
+      <c r="C5" s="103"/>
+      <c r="D5" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="108" t="s">
+      <c r="I5" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="109"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
       <c r="P5" s="123">
         <v>44050</v>
       </c>
-      <c r="Q5" s="109"/>
-      <c r="R5" s="109"/>
-      <c r="S5" s="109"/>
-      <c r="T5" s="109"/>
-      <c r="U5" s="109"/>
-      <c r="V5" s="109"/>
-      <c r="W5" s="109"/>
-      <c r="X5" s="109"/>
-      <c r="Y5" s="109"/>
-      <c r="Z5" s="109"/>
-      <c r="AA5" s="109"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120"/>
+      <c r="X5" s="120"/>
+      <c r="Y5" s="120"/>
+      <c r="Z5" s="120"/>
+      <c r="AA5" s="120"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="1"/>
@@ -2165,40 +2171,36 @@
     </row>
     <row r="6" spans="1:69" s="38" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="102" t="s">
+      <c r="C6" s="103"/>
+      <c r="D6" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
       <c r="H6" s="18"/>
-      <c r="I6" s="108" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="123">
-        <v>44050</v>
-      </c>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="109"/>
-      <c r="S6" s="109"/>
-      <c r="T6" s="109"/>
-      <c r="U6" s="109"/>
-      <c r="V6" s="109"/>
-      <c r="W6" s="109"/>
-      <c r="X6" s="109"/>
-      <c r="Y6" s="109"/>
-      <c r="Z6" s="109"/>
-      <c r="AA6" s="109"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="120"/>
+      <c r="P6" s="123"/>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="120"/>
+      <c r="S6" s="120"/>
+      <c r="T6" s="120"/>
+      <c r="U6" s="120"/>
+      <c r="V6" s="120"/>
+      <c r="W6" s="120"/>
+      <c r="X6" s="120"/>
+      <c r="Y6" s="120"/>
+      <c r="Z6" s="120"/>
+      <c r="AA6" s="120"/>
       <c r="AB6" s="19"/>
       <c r="AC6" s="17"/>
       <c r="AD6" s="1"/>
@@ -2242,256 +2244,256 @@
       <c r="BP6" s="1"/>
       <c r="BQ6" s="1"/>
     </row>
-    <row r="7" spans="1:69" s="91" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="87"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="90">
+    <row r="7" spans="1:69" s="90" customFormat="1" ht="21" customHeight="1">
+      <c r="A7" s="86"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="89">
         <f>+J7-1</f>
         <v>44081</v>
       </c>
-      <c r="J7" s="90">
+      <c r="J7" s="89">
         <f>+E12</f>
         <v>44082</v>
       </c>
-      <c r="K7" s="90">
+      <c r="K7" s="89">
         <f t="shared" ref="K7:M7" si="0">+J7+1</f>
         <v>44083</v>
       </c>
-      <c r="L7" s="90">
+      <c r="L7" s="89">
         <f t="shared" si="0"/>
         <v>44084</v>
       </c>
-      <c r="M7" s="90">
+      <c r="M7" s="89">
         <f t="shared" si="0"/>
         <v>44085</v>
       </c>
-      <c r="N7" s="90">
+      <c r="N7" s="89">
         <f>+M7+3</f>
         <v>44088</v>
       </c>
-      <c r="O7" s="90">
+      <c r="O7" s="89">
         <f t="shared" ref="O7:BP7" si="1">+N7+1</f>
         <v>44089</v>
       </c>
-      <c r="P7" s="90">
+      <c r="P7" s="89">
         <f t="shared" si="1"/>
         <v>44090</v>
       </c>
-      <c r="Q7" s="90">
+      <c r="Q7" s="89">
         <f t="shared" si="1"/>
         <v>44091</v>
       </c>
-      <c r="R7" s="90">
+      <c r="R7" s="89">
         <f t="shared" si="1"/>
         <v>44092</v>
       </c>
-      <c r="S7" s="90">
+      <c r="S7" s="89">
         <f>+R7+3</f>
         <v>44095</v>
       </c>
-      <c r="T7" s="90">
+      <c r="T7" s="89">
         <f t="shared" si="1"/>
         <v>44096</v>
       </c>
-      <c r="U7" s="90">
+      <c r="U7" s="89">
         <f t="shared" si="1"/>
         <v>44097</v>
       </c>
-      <c r="V7" s="90">
+      <c r="V7" s="89">
         <f t="shared" si="1"/>
         <v>44098</v>
       </c>
-      <c r="W7" s="90">
+      <c r="W7" s="89">
         <f t="shared" si="1"/>
         <v>44099</v>
       </c>
-      <c r="X7" s="90">
+      <c r="X7" s="89">
         <f>+W7+3</f>
         <v>44102</v>
       </c>
-      <c r="Y7" s="90">
+      <c r="Y7" s="89">
         <f t="shared" si="1"/>
         <v>44103</v>
       </c>
-      <c r="Z7" s="90">
+      <c r="Z7" s="89">
         <f t="shared" si="1"/>
         <v>44104</v>
       </c>
-      <c r="AA7" s="90">
+      <c r="AA7" s="89">
         <f t="shared" si="1"/>
         <v>44105</v>
       </c>
-      <c r="AB7" s="90">
+      <c r="AB7" s="89">
         <f t="shared" si="1"/>
         <v>44106</v>
       </c>
-      <c r="AC7" s="90">
+      <c r="AC7" s="89">
         <f>+AB7+3</f>
         <v>44109</v>
       </c>
-      <c r="AD7" s="90">
+      <c r="AD7" s="89">
         <f t="shared" si="1"/>
         <v>44110</v>
       </c>
-      <c r="AE7" s="90">
+      <c r="AE7" s="89">
         <f t="shared" si="1"/>
         <v>44111</v>
       </c>
-      <c r="AF7" s="90">
+      <c r="AF7" s="89">
         <f t="shared" si="1"/>
         <v>44112</v>
       </c>
-      <c r="AG7" s="90">
+      <c r="AG7" s="89">
         <f t="shared" si="1"/>
         <v>44113</v>
       </c>
-      <c r="AH7" s="90">
+      <c r="AH7" s="89">
         <f>+AG7+3</f>
         <v>44116</v>
       </c>
-      <c r="AI7" s="90">
+      <c r="AI7" s="89">
         <f t="shared" si="1"/>
         <v>44117</v>
       </c>
-      <c r="AJ7" s="90">
+      <c r="AJ7" s="89">
         <f t="shared" si="1"/>
         <v>44118</v>
       </c>
-      <c r="AK7" s="90">
+      <c r="AK7" s="89">
         <f t="shared" si="1"/>
         <v>44119</v>
       </c>
-      <c r="AL7" s="90">
+      <c r="AL7" s="89">
         <f t="shared" si="1"/>
         <v>44120</v>
       </c>
-      <c r="AM7" s="90">
+      <c r="AM7" s="89">
         <f>+AL7+3</f>
         <v>44123</v>
       </c>
-      <c r="AN7" s="90">
+      <c r="AN7" s="89">
         <f t="shared" si="1"/>
         <v>44124</v>
       </c>
-      <c r="AO7" s="90">
+      <c r="AO7" s="89">
         <f t="shared" si="1"/>
         <v>44125</v>
       </c>
-      <c r="AP7" s="90">
+      <c r="AP7" s="89">
         <f t="shared" si="1"/>
         <v>44126</v>
       </c>
-      <c r="AQ7" s="90">
+      <c r="AQ7" s="89">
         <f t="shared" si="1"/>
         <v>44127</v>
       </c>
-      <c r="AR7" s="90">
+      <c r="AR7" s="89">
         <f>+AQ7+3</f>
         <v>44130</v>
       </c>
-      <c r="AS7" s="90">
+      <c r="AS7" s="89">
         <f t="shared" si="1"/>
         <v>44131</v>
       </c>
-      <c r="AT7" s="90">
+      <c r="AT7" s="89">
         <f t="shared" si="1"/>
         <v>44132</v>
       </c>
-      <c r="AU7" s="90">
+      <c r="AU7" s="89">
         <f t="shared" si="1"/>
         <v>44133</v>
       </c>
-      <c r="AV7" s="90">
+      <c r="AV7" s="89">
         <f t="shared" si="1"/>
         <v>44134</v>
       </c>
-      <c r="AW7" s="90">
+      <c r="AW7" s="89">
         <f>+AV7+3</f>
         <v>44137</v>
       </c>
-      <c r="AX7" s="90">
+      <c r="AX7" s="89">
         <f t="shared" si="1"/>
         <v>44138</v>
       </c>
-      <c r="AY7" s="90">
+      <c r="AY7" s="89">
         <f t="shared" si="1"/>
         <v>44139</v>
       </c>
-      <c r="AZ7" s="90">
+      <c r="AZ7" s="89">
         <f t="shared" si="1"/>
         <v>44140</v>
       </c>
-      <c r="BA7" s="90">
+      <c r="BA7" s="89">
         <f t="shared" si="1"/>
         <v>44141</v>
       </c>
-      <c r="BB7" s="90">
+      <c r="BB7" s="89">
         <f>+BA7+3</f>
         <v>44144</v>
       </c>
-      <c r="BC7" s="90">
+      <c r="BC7" s="89">
         <f t="shared" si="1"/>
         <v>44145</v>
       </c>
-      <c r="BD7" s="90">
+      <c r="BD7" s="89">
         <f t="shared" si="1"/>
         <v>44146</v>
       </c>
-      <c r="BE7" s="90">
+      <c r="BE7" s="89">
         <f t="shared" si="1"/>
         <v>44147</v>
       </c>
-      <c r="BF7" s="90">
+      <c r="BF7" s="89">
         <f t="shared" si="1"/>
         <v>44148</v>
       </c>
-      <c r="BG7" s="90">
+      <c r="BG7" s="89">
         <f>+BF7+3</f>
         <v>44151</v>
       </c>
-      <c r="BH7" s="90">
+      <c r="BH7" s="89">
         <f t="shared" si="1"/>
         <v>44152</v>
       </c>
-      <c r="BI7" s="90">
+      <c r="BI7" s="89">
         <f t="shared" si="1"/>
         <v>44153</v>
       </c>
-      <c r="BJ7" s="90">
+      <c r="BJ7" s="89">
         <f t="shared" si="1"/>
         <v>44154</v>
       </c>
-      <c r="BK7" s="90">
+      <c r="BK7" s="89">
         <f t="shared" si="1"/>
         <v>44155</v>
       </c>
-      <c r="BL7" s="90">
+      <c r="BL7" s="89">
         <f>+BK7+3</f>
         <v>44158</v>
       </c>
-      <c r="BM7" s="90">
+      <c r="BM7" s="89">
         <f t="shared" si="1"/>
         <v>44159</v>
       </c>
-      <c r="BN7" s="90">
+      <c r="BN7" s="89">
         <f t="shared" si="1"/>
         <v>44160</v>
       </c>
-      <c r="BO7" s="90">
+      <c r="BO7" s="89">
         <f t="shared" si="1"/>
         <v>44161</v>
       </c>
-      <c r="BP7" s="90">
+      <c r="BP7" s="89">
         <f t="shared" si="1"/>
         <v>44162</v>
       </c>
-      <c r="BQ7" s="87"/>
+      <c r="BQ7" s="86"/>
     </row>
     <row r="8" spans="1:69" ht="17.25" customHeight="1">
       <c r="A8" s="22"/>
@@ -2513,77 +2515,77 @@
       <c r="G8" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="129" t="s">
+      <c r="H8" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="122" t="s">
+      <c r="I8" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="112"/>
-      <c r="W8" s="112"/>
-      <c r="X8" s="128" t="s">
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="105"/>
+      <c r="X8" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="112"/>
-      <c r="AA8" s="112"/>
-      <c r="AB8" s="112"/>
-      <c r="AC8" s="112"/>
-      <c r="AD8" s="112"/>
-      <c r="AE8" s="112"/>
-      <c r="AF8" s="112"/>
-      <c r="AG8" s="112"/>
-      <c r="AH8" s="112"/>
-      <c r="AI8" s="112"/>
-      <c r="AJ8" s="112"/>
-      <c r="AK8" s="112"/>
-      <c r="AL8" s="112"/>
-      <c r="AM8" s="111" t="s">
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="105"/>
+      <c r="AA8" s="105"/>
+      <c r="AB8" s="105"/>
+      <c r="AC8" s="105"/>
+      <c r="AD8" s="105"/>
+      <c r="AE8" s="105"/>
+      <c r="AF8" s="105"/>
+      <c r="AG8" s="105"/>
+      <c r="AH8" s="105"/>
+      <c r="AI8" s="105"/>
+      <c r="AJ8" s="105"/>
+      <c r="AK8" s="105"/>
+      <c r="AL8" s="105"/>
+      <c r="AM8" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="AN8" s="112"/>
-      <c r="AO8" s="112"/>
-      <c r="AP8" s="112"/>
-      <c r="AQ8" s="112"/>
-      <c r="AR8" s="112"/>
-      <c r="AS8" s="112"/>
-      <c r="AT8" s="112"/>
-      <c r="AU8" s="112"/>
-      <c r="AV8" s="112"/>
-      <c r="AW8" s="112"/>
-      <c r="AX8" s="112"/>
-      <c r="AY8" s="112"/>
-      <c r="AZ8" s="112"/>
-      <c r="BA8" s="112"/>
-      <c r="BB8" s="113" t="s">
+      <c r="AN8" s="105"/>
+      <c r="AO8" s="105"/>
+      <c r="AP8" s="105"/>
+      <c r="AQ8" s="105"/>
+      <c r="AR8" s="105"/>
+      <c r="AS8" s="105"/>
+      <c r="AT8" s="105"/>
+      <c r="AU8" s="105"/>
+      <c r="AV8" s="105"/>
+      <c r="AW8" s="105"/>
+      <c r="AX8" s="105"/>
+      <c r="AY8" s="105"/>
+      <c r="AZ8" s="105"/>
+      <c r="BA8" s="105"/>
+      <c r="BB8" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="BC8" s="112"/>
-      <c r="BD8" s="112"/>
-      <c r="BE8" s="112"/>
-      <c r="BF8" s="112"/>
-      <c r="BG8" s="112"/>
-      <c r="BH8" s="112"/>
-      <c r="BI8" s="112"/>
-      <c r="BJ8" s="112"/>
-      <c r="BK8" s="112"/>
-      <c r="BL8" s="112"/>
-      <c r="BM8" s="112"/>
-      <c r="BN8" s="112"/>
-      <c r="BO8" s="112"/>
-      <c r="BP8" s="114"/>
+      <c r="BC8" s="105"/>
+      <c r="BD8" s="105"/>
+      <c r="BE8" s="105"/>
+      <c r="BF8" s="105"/>
+      <c r="BG8" s="105"/>
+      <c r="BH8" s="105"/>
+      <c r="BI8" s="105"/>
+      <c r="BJ8" s="105"/>
+      <c r="BK8" s="105"/>
+      <c r="BL8" s="105"/>
+      <c r="BM8" s="105"/>
+      <c r="BN8" s="105"/>
+      <c r="BO8" s="105"/>
+      <c r="BP8" s="106"/>
       <c r="BQ8" s="21"/>
     </row>
     <row r="9" spans="1:69" ht="17.25" customHeight="1">
@@ -2594,91 +2596,91 @@
       <c r="E9" s="127"/>
       <c r="F9" s="127"/>
       <c r="G9" s="127"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="115" t="s">
+      <c r="H9" s="129"/>
+      <c r="I9" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="118" t="s">
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="118" t="s">
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="T9" s="116"/>
-      <c r="U9" s="116"/>
-      <c r="V9" s="116"/>
-      <c r="W9" s="117"/>
-      <c r="X9" s="120" t="s">
+      <c r="T9" s="108"/>
+      <c r="U9" s="108"/>
+      <c r="V9" s="108"/>
+      <c r="W9" s="109"/>
+      <c r="X9" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="Y9" s="116"/>
-      <c r="Z9" s="116"/>
-      <c r="AA9" s="116"/>
-      <c r="AB9" s="117"/>
-      <c r="AC9" s="120" t="s">
+      <c r="Y9" s="108"/>
+      <c r="Z9" s="108"/>
+      <c r="AA9" s="108"/>
+      <c r="AB9" s="109"/>
+      <c r="AC9" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="AD9" s="116"/>
-      <c r="AE9" s="116"/>
-      <c r="AF9" s="116"/>
-      <c r="AG9" s="117"/>
-      <c r="AH9" s="120" t="s">
+      <c r="AD9" s="108"/>
+      <c r="AE9" s="108"/>
+      <c r="AF9" s="108"/>
+      <c r="AG9" s="109"/>
+      <c r="AH9" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="AI9" s="116"/>
-      <c r="AJ9" s="116"/>
-      <c r="AK9" s="116"/>
-      <c r="AL9" s="117"/>
-      <c r="AM9" s="121" t="s">
+      <c r="AI9" s="108"/>
+      <c r="AJ9" s="108"/>
+      <c r="AK9" s="108"/>
+      <c r="AL9" s="109"/>
+      <c r="AM9" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="AN9" s="116"/>
-      <c r="AO9" s="116"/>
-      <c r="AP9" s="116"/>
-      <c r="AQ9" s="117"/>
-      <c r="AR9" s="121" t="s">
+      <c r="AN9" s="108"/>
+      <c r="AO9" s="108"/>
+      <c r="AP9" s="108"/>
+      <c r="AQ9" s="109"/>
+      <c r="AR9" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="AS9" s="116"/>
-      <c r="AT9" s="116"/>
-      <c r="AU9" s="116"/>
-      <c r="AV9" s="117"/>
-      <c r="AW9" s="121" t="s">
+      <c r="AS9" s="108"/>
+      <c r="AT9" s="108"/>
+      <c r="AU9" s="108"/>
+      <c r="AV9" s="109"/>
+      <c r="AW9" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="AX9" s="116"/>
-      <c r="AY9" s="116"/>
-      <c r="AZ9" s="116"/>
-      <c r="BA9" s="117"/>
-      <c r="BB9" s="119" t="s">
+      <c r="AX9" s="108"/>
+      <c r="AY9" s="108"/>
+      <c r="AZ9" s="108"/>
+      <c r="BA9" s="109"/>
+      <c r="BB9" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="BC9" s="116"/>
-      <c r="BD9" s="116"/>
-      <c r="BE9" s="116"/>
-      <c r="BF9" s="117"/>
-      <c r="BG9" s="119" t="s">
+      <c r="BC9" s="108"/>
+      <c r="BD9" s="108"/>
+      <c r="BE9" s="108"/>
+      <c r="BF9" s="109"/>
+      <c r="BG9" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="BH9" s="116"/>
-      <c r="BI9" s="116"/>
-      <c r="BJ9" s="116"/>
-      <c r="BK9" s="117"/>
-      <c r="BL9" s="119" t="s">
+      <c r="BH9" s="108"/>
+      <c r="BI9" s="108"/>
+      <c r="BJ9" s="108"/>
+      <c r="BK9" s="109"/>
+      <c r="BL9" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="BM9" s="116"/>
-      <c r="BN9" s="116"/>
-      <c r="BO9" s="116"/>
-      <c r="BP9" s="117"/>
+      <c r="BM9" s="108"/>
+      <c r="BN9" s="108"/>
+      <c r="BO9" s="108"/>
+      <c r="BP9" s="109"/>
       <c r="BQ9" s="23"/>
     </row>
     <row r="10" spans="1:69" ht="17.25" customHeight="1">
@@ -2689,7 +2691,7 @@
       <c r="E10" s="127"/>
       <c r="F10" s="127"/>
       <c r="G10" s="127"/>
-      <c r="H10" s="130"/>
+      <c r="H10" s="129"/>
       <c r="I10" s="62" t="s">
         <v>26</v>
       </c>
@@ -3226,7 +3228,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H15" s="79"/>
+      <c r="H15" s="130"/>
       <c r="I15" s="50"/>
       <c r="J15" s="33"/>
       <c r="K15" s="34"/>
@@ -3305,8 +3307,8 @@
       <c r="I16" s="46"/>
       <c r="J16" s="44"/>
       <c r="K16" s="45"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="93"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="92"/>
       <c r="N16" s="57"/>
       <c r="O16" s="57"/>
       <c r="P16" s="57"/>
@@ -3386,12 +3388,12 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="H17" s="80"/>
+      <c r="H17" s="79"/>
       <c r="I17" s="48"/>
       <c r="J17" s="31"/>
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
-      <c r="M17" s="94"/>
+      <c r="M17" s="93"/>
       <c r="N17" s="42"/>
       <c r="O17" s="40"/>
       <c r="P17" s="40"/>
@@ -3471,12 +3473,12 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="H18" s="80"/>
+      <c r="H18" s="79"/>
       <c r="I18" s="50"/>
       <c r="J18" s="33"/>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
-      <c r="M18" s="94"/>
+      <c r="M18" s="93"/>
       <c r="N18" s="42"/>
       <c r="O18" s="40"/>
       <c r="P18" s="40"/>
@@ -3557,12 +3559,12 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="H19" s="80"/>
+      <c r="H19" s="79"/>
       <c r="I19" s="50"/>
       <c r="J19" s="33"/>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
-      <c r="M19" s="94"/>
+      <c r="M19" s="93"/>
       <c r="N19" s="42"/>
       <c r="O19" s="40"/>
       <c r="P19" s="40"/>
@@ -3581,8 +3583,8 @@
       <c r="AC19" s="42"/>
       <c r="AD19" s="40"/>
       <c r="AE19" s="40"/>
-      <c r="AF19" s="95"/>
-      <c r="AG19" s="96"/>
+      <c r="AF19" s="94"/>
+      <c r="AG19" s="95"/>
       <c r="AH19" s="43"/>
       <c r="AI19" s="34"/>
       <c r="AJ19" s="34"/>
@@ -3697,7 +3699,7 @@
     </row>
     <row r="21" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A21" s="27"/>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="80" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="28" t="s">
@@ -3717,7 +3719,7 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="H21" s="80"/>
+      <c r="H21" s="79"/>
       <c r="I21" s="48"/>
       <c r="J21" s="31"/>
       <c r="K21" s="32"/>
@@ -3742,7 +3744,7 @@
       <c r="AD21" s="32"/>
       <c r="AE21" s="32"/>
       <c r="AF21" s="32"/>
-      <c r="AG21" s="94"/>
+      <c r="AG21" s="93"/>
       <c r="AH21" s="42"/>
       <c r="AI21" s="40"/>
       <c r="AJ21" s="40"/>
@@ -3782,7 +3784,7 @@
     </row>
     <row r="22" spans="1:69" s="38" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A22" s="27"/>
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="80" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="28" t="s">
@@ -3802,7 +3804,7 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="H22" s="80"/>
+      <c r="H22" s="79"/>
       <c r="I22" s="50"/>
       <c r="J22" s="33"/>
       <c r="K22" s="34"/>
@@ -3827,7 +3829,7 @@
       <c r="AD22" s="34"/>
       <c r="AE22" s="34"/>
       <c r="AF22" s="34"/>
-      <c r="AG22" s="94"/>
+      <c r="AG22" s="93"/>
       <c r="AH22" s="42"/>
       <c r="AI22" s="40"/>
       <c r="AJ22" s="40"/>
@@ -3867,7 +3869,7 @@
     </row>
     <row r="23" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A23" s="27"/>
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="80" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="28" t="s">
@@ -3887,7 +3889,7 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H23" s="80"/>
+      <c r="H23" s="79"/>
       <c r="I23" s="50"/>
       <c r="J23" s="33"/>
       <c r="K23" s="34"/>
@@ -3952,7 +3954,7 @@
     </row>
     <row r="24" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A24" s="27"/>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="80" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="28" t="s">
@@ -3972,7 +3974,7 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H24" s="80"/>
+      <c r="H24" s="79"/>
       <c r="I24" s="50"/>
       <c r="J24" s="33"/>
       <c r="K24" s="34"/>
@@ -4132,7 +4134,7 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H26" s="80"/>
+      <c r="H26" s="79"/>
       <c r="I26" s="48"/>
       <c r="J26" s="31"/>
       <c r="K26" s="32"/>
@@ -4218,7 +4220,7 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="H27" s="80"/>
+      <c r="H27" s="79"/>
       <c r="I27" s="48"/>
       <c r="J27" s="31"/>
       <c r="K27" s="32"/>
@@ -4304,7 +4306,7 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="H28" s="80"/>
+      <c r="H28" s="79"/>
       <c r="I28" s="50"/>
       <c r="J28" s="33"/>
       <c r="K28" s="34"/>
@@ -4360,7 +4362,7 @@
       <c r="BI28" s="40"/>
       <c r="BJ28" s="40"/>
       <c r="BK28" s="49"/>
-      <c r="BL28" s="97"/>
+      <c r="BL28" s="96"/>
       <c r="BM28" s="34"/>
       <c r="BN28" s="34"/>
       <c r="BO28" s="34"/>
@@ -4369,26 +4371,26 @@
     </row>
     <row r="29" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A29" s="27"/>
-      <c r="B29" s="82">
+      <c r="B29" s="81">
         <v>43194</v>
       </c>
-      <c r="C29" s="83" t="s">
+      <c r="C29" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="83" t="s">
+      <c r="D29" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="84">
+      <c r="E29" s="83">
         <v>44156</v>
       </c>
-      <c r="F29" s="84">
+      <c r="F29" s="83">
         <v>44161</v>
       </c>
-      <c r="G29" s="85">
+      <c r="G29" s="84">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H29" s="86"/>
+      <c r="H29" s="85"/>
       <c r="I29" s="53"/>
       <c r="J29" s="54"/>
       <c r="K29" s="55"/>
@@ -4444,11 +4446,11 @@
       <c r="BI29" s="55"/>
       <c r="BJ29" s="55"/>
       <c r="BK29" s="56"/>
-      <c r="BL29" s="98"/>
-      <c r="BM29" s="99"/>
-      <c r="BN29" s="99"/>
-      <c r="BO29" s="99"/>
-      <c r="BP29" s="100"/>
+      <c r="BL29" s="97"/>
+      <c r="BM29" s="98"/>
+      <c r="BN29" s="98"/>
+      <c r="BO29" s="98"/>
+      <c r="BP29" s="99"/>
       <c r="BQ29" s="27"/>
     </row>
     <row r="30" spans="1:69" ht="21" customHeight="1">
@@ -4666,21 +4668,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="BB8:BP8"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="BB9:BF9"/>
-    <mergeCell ref="BG9:BK9"/>
-    <mergeCell ref="BL9:BP9"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="AH9:AL9"/>
-    <mergeCell ref="AM9:AQ9"/>
-    <mergeCell ref="AR9:AV9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="I8:W8"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="X8:AL8"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="I4:O4"/>
@@ -4697,10 +4684,25 @@
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="I6:O6"/>
     <mergeCell ref="P6:AA6"/>
+    <mergeCell ref="BB8:BP8"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="BB9:BF9"/>
+    <mergeCell ref="BG9:BK9"/>
+    <mergeCell ref="BL9:BP9"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="AH9:AL9"/>
+    <mergeCell ref="AM9:AQ9"/>
+    <mergeCell ref="AR9:AV9"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="I8:W8"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="X8:AL8"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
-  <conditionalFormatting sqref="H27:H29 H12:H13 H15:H21 H23:H25">
-    <cfRule type="colorScale" priority="17">
+  <conditionalFormatting sqref="H27:H29 H12:H13 H16:H21 H23:H25">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4709,8 +4711,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27:H29 H12:H13 H15:H21 H23:H25">
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="H27:H29 H12:H13 H16:H21 H23:H25">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4720,6 +4722,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -4729,7 +4751,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
+  <conditionalFormatting sqref="H26">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -4739,7 +4761,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
+  <conditionalFormatting sqref="H22">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -4749,7 +4771,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
+  <conditionalFormatting sqref="H22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -4759,7 +4781,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
+  <conditionalFormatting sqref="H15">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4769,7 +4791,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
+  <conditionalFormatting sqref="H15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/Диаграмма Ганта.xlsx
+++ b/Диаграмма Ганта.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P1lan\Desktop\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873959C8-DD68-4F40-A817-8000C301809E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35204782-A2ED-4CA7-ACAD-F9B02364A41D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="600" windowWidth="21600" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Диаграмма Ганта" sheetId="1" r:id="rId1"/>
@@ -212,10 +212,10 @@
     <t>Влада Владимировна</t>
   </si>
   <si>
-    <t>Работник Проекта</t>
-  </si>
-  <si>
     <t>Приходченко Влада Владимировна</t>
+  </si>
+  <si>
+    <t>РАБОТНИК ПРОЕКТА</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1046,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1290,9 +1290,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1343,10 +1340,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="27" fillId="18" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1371,46 +1403,32 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="27" fillId="18" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1438,11 +1456,16 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Диаграмма Ганта-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="firstRowStripe" dxfId="5"/>
+      <tableStyleElement type="secondRowStripe" dxfId="4"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FF54D751"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1455,9 +1478,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="H12:H29" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="H12:H29" headerRowCount="0" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="Диаграмма Ганта-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1775,7 +1798,7 @@
       <pane xSplit="8" ySplit="10" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -1869,21 +1892,21 @@
     </row>
     <row r="2" spans="1:69" ht="21" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
       <c r="O2" s="36"/>
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
@@ -2013,41 +2036,41 @@
     </row>
     <row r="4" spans="1:69" ht="21" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="100" t="s">
+      <c r="C4" s="102"/>
+      <c r="D4" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="119" t="s">
+      <c r="I4" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
-      <c r="O4" s="120"/>
-      <c r="P4" s="121" t="s">
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="120"/>
-      <c r="R4" s="120"/>
-      <c r="S4" s="120"/>
-      <c r="T4" s="120"/>
-      <c r="U4" s="120"/>
-      <c r="V4" s="120"/>
-      <c r="W4" s="120"/>
-      <c r="X4" s="120"/>
-      <c r="Y4" s="120"/>
-      <c r="Z4" s="120"/>
-      <c r="AA4" s="120"/>
-      <c r="AB4" s="120"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="108"/>
+      <c r="X4" s="108"/>
+      <c r="Y4" s="108"/>
+      <c r="Z4" s="108"/>
+      <c r="AA4" s="108"/>
+      <c r="AB4" s="108"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="10"/>
       <c r="AE4" s="10"/>
@@ -2092,40 +2115,40 @@
     </row>
     <row r="5" spans="1:69" ht="21" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="101" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="119" t="s">
+      <c r="I5" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="120"/>
-      <c r="P5" s="123">
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="112">
         <v>44050</v>
       </c>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120"/>
-      <c r="S5" s="120"/>
-      <c r="T5" s="120"/>
-      <c r="U5" s="120"/>
-      <c r="V5" s="120"/>
-      <c r="W5" s="120"/>
-      <c r="X5" s="120"/>
-      <c r="Y5" s="120"/>
-      <c r="Z5" s="120"/>
-      <c r="AA5" s="120"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="108"/>
+      <c r="W5" s="108"/>
+      <c r="X5" s="108"/>
+      <c r="Y5" s="108"/>
+      <c r="Z5" s="108"/>
+      <c r="AA5" s="108"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="1"/>
@@ -2171,36 +2194,36 @@
     </row>
     <row r="6" spans="1:69" s="38" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="102" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="103"/>
-      <c r="D6" s="101" t="s">
+      <c r="B6" s="101" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="102"/>
+      <c r="D6" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
       <c r="H6" s="18"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="120"/>
-      <c r="O6" s="120"/>
-      <c r="P6" s="123"/>
-      <c r="Q6" s="120"/>
-      <c r="R6" s="120"/>
-      <c r="S6" s="120"/>
-      <c r="T6" s="120"/>
-      <c r="U6" s="120"/>
-      <c r="V6" s="120"/>
-      <c r="W6" s="120"/>
-      <c r="X6" s="120"/>
-      <c r="Y6" s="120"/>
-      <c r="Z6" s="120"/>
-      <c r="AA6" s="120"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="108"/>
+      <c r="U6" s="108"/>
+      <c r="V6" s="108"/>
+      <c r="W6" s="108"/>
+      <c r="X6" s="108"/>
+      <c r="Y6" s="108"/>
+      <c r="Z6" s="108"/>
+      <c r="AA6" s="108"/>
       <c r="AB6" s="19"/>
       <c r="AC6" s="17"/>
       <c r="AD6" s="1"/>
@@ -2244,454 +2267,454 @@
       <c r="BP6" s="1"/>
       <c r="BQ6" s="1"/>
     </row>
-    <row r="7" spans="1:69" s="90" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="86"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="89">
+    <row r="7" spans="1:69" s="89" customFormat="1" ht="21" customHeight="1">
+      <c r="A7" s="85"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="88">
         <f>+J7-1</f>
         <v>44081</v>
       </c>
-      <c r="J7" s="89">
+      <c r="J7" s="88">
         <f>+E12</f>
         <v>44082</v>
       </c>
-      <c r="K7" s="89">
+      <c r="K7" s="88">
         <f t="shared" ref="K7:M7" si="0">+J7+1</f>
         <v>44083</v>
       </c>
-      <c r="L7" s="89">
+      <c r="L7" s="88">
         <f t="shared" si="0"/>
         <v>44084</v>
       </c>
-      <c r="M7" s="89">
+      <c r="M7" s="88">
         <f t="shared" si="0"/>
         <v>44085</v>
       </c>
-      <c r="N7" s="89">
+      <c r="N7" s="88">
         <f>+M7+3</f>
         <v>44088</v>
       </c>
-      <c r="O7" s="89">
+      <c r="O7" s="88">
         <f t="shared" ref="O7:BP7" si="1">+N7+1</f>
         <v>44089</v>
       </c>
-      <c r="P7" s="89">
+      <c r="P7" s="88">
         <f t="shared" si="1"/>
         <v>44090</v>
       </c>
-      <c r="Q7" s="89">
+      <c r="Q7" s="88">
         <f t="shared" si="1"/>
         <v>44091</v>
       </c>
-      <c r="R7" s="89">
+      <c r="R7" s="88">
         <f t="shared" si="1"/>
         <v>44092</v>
       </c>
-      <c r="S7" s="89">
+      <c r="S7" s="88">
         <f>+R7+3</f>
         <v>44095</v>
       </c>
-      <c r="T7" s="89">
+      <c r="T7" s="88">
         <f t="shared" si="1"/>
         <v>44096</v>
       </c>
-      <c r="U7" s="89">
+      <c r="U7" s="88">
         <f t="shared" si="1"/>
         <v>44097</v>
       </c>
-      <c r="V7" s="89">
+      <c r="V7" s="88">
         <f t="shared" si="1"/>
         <v>44098</v>
       </c>
-      <c r="W7" s="89">
+      <c r="W7" s="88">
         <f t="shared" si="1"/>
         <v>44099</v>
       </c>
-      <c r="X7" s="89">
+      <c r="X7" s="88">
         <f>+W7+3</f>
         <v>44102</v>
       </c>
-      <c r="Y7" s="89">
+      <c r="Y7" s="88">
         <f t="shared" si="1"/>
         <v>44103</v>
       </c>
-      <c r="Z7" s="89">
+      <c r="Z7" s="88">
         <f t="shared" si="1"/>
         <v>44104</v>
       </c>
-      <c r="AA7" s="89">
+      <c r="AA7" s="88">
         <f t="shared" si="1"/>
         <v>44105</v>
       </c>
-      <c r="AB7" s="89">
+      <c r="AB7" s="88">
         <f t="shared" si="1"/>
         <v>44106</v>
       </c>
-      <c r="AC7" s="89">
+      <c r="AC7" s="88">
         <f>+AB7+3</f>
         <v>44109</v>
       </c>
-      <c r="AD7" s="89">
+      <c r="AD7" s="88">
         <f t="shared" si="1"/>
         <v>44110</v>
       </c>
-      <c r="AE7" s="89">
+      <c r="AE7" s="88">
         <f t="shared" si="1"/>
         <v>44111</v>
       </c>
-      <c r="AF7" s="89">
+      <c r="AF7" s="88">
         <f t="shared" si="1"/>
         <v>44112</v>
       </c>
-      <c r="AG7" s="89">
+      <c r="AG7" s="88">
         <f t="shared" si="1"/>
         <v>44113</v>
       </c>
-      <c r="AH7" s="89">
+      <c r="AH7" s="88">
         <f>+AG7+3</f>
         <v>44116</v>
       </c>
-      <c r="AI7" s="89">
+      <c r="AI7" s="88">
         <f t="shared" si="1"/>
         <v>44117</v>
       </c>
-      <c r="AJ7" s="89">
+      <c r="AJ7" s="88">
         <f t="shared" si="1"/>
         <v>44118</v>
       </c>
-      <c r="AK7" s="89">
+      <c r="AK7" s="88">
         <f t="shared" si="1"/>
         <v>44119</v>
       </c>
-      <c r="AL7" s="89">
+      <c r="AL7" s="88">
         <f t="shared" si="1"/>
         <v>44120</v>
       </c>
-      <c r="AM7" s="89">
+      <c r="AM7" s="88">
         <f>+AL7+3</f>
         <v>44123</v>
       </c>
-      <c r="AN7" s="89">
+      <c r="AN7" s="88">
         <f t="shared" si="1"/>
         <v>44124</v>
       </c>
-      <c r="AO7" s="89">
+      <c r="AO7" s="88">
         <f t="shared" si="1"/>
         <v>44125</v>
       </c>
-      <c r="AP7" s="89">
+      <c r="AP7" s="88">
         <f t="shared" si="1"/>
         <v>44126</v>
       </c>
-      <c r="AQ7" s="89">
+      <c r="AQ7" s="88">
         <f t="shared" si="1"/>
         <v>44127</v>
       </c>
-      <c r="AR7" s="89">
+      <c r="AR7" s="88">
         <f>+AQ7+3</f>
         <v>44130</v>
       </c>
-      <c r="AS7" s="89">
+      <c r="AS7" s="88">
         <f t="shared" si="1"/>
         <v>44131</v>
       </c>
-      <c r="AT7" s="89">
+      <c r="AT7" s="88">
         <f t="shared" si="1"/>
         <v>44132</v>
       </c>
-      <c r="AU7" s="89">
+      <c r="AU7" s="88">
         <f t="shared" si="1"/>
         <v>44133</v>
       </c>
-      <c r="AV7" s="89">
+      <c r="AV7" s="88">
         <f t="shared" si="1"/>
         <v>44134</v>
       </c>
-      <c r="AW7" s="89">
+      <c r="AW7" s="88">
         <f>+AV7+3</f>
         <v>44137</v>
       </c>
-      <c r="AX7" s="89">
+      <c r="AX7" s="88">
         <f t="shared" si="1"/>
         <v>44138</v>
       </c>
-      <c r="AY7" s="89">
+      <c r="AY7" s="88">
         <f t="shared" si="1"/>
         <v>44139</v>
       </c>
-      <c r="AZ7" s="89">
+      <c r="AZ7" s="88">
         <f t="shared" si="1"/>
         <v>44140</v>
       </c>
-      <c r="BA7" s="89">
+      <c r="BA7" s="88">
         <f t="shared" si="1"/>
         <v>44141</v>
       </c>
-      <c r="BB7" s="89">
+      <c r="BB7" s="88">
         <f>+BA7+3</f>
         <v>44144</v>
       </c>
-      <c r="BC7" s="89">
+      <c r="BC7" s="88">
         <f t="shared" si="1"/>
         <v>44145</v>
       </c>
-      <c r="BD7" s="89">
+      <c r="BD7" s="88">
         <f t="shared" si="1"/>
         <v>44146</v>
       </c>
-      <c r="BE7" s="89">
+      <c r="BE7" s="88">
         <f t="shared" si="1"/>
         <v>44147</v>
       </c>
-      <c r="BF7" s="89">
+      <c r="BF7" s="88">
         <f t="shared" si="1"/>
         <v>44148</v>
       </c>
-      <c r="BG7" s="89">
+      <c r="BG7" s="88">
         <f>+BF7+3</f>
         <v>44151</v>
       </c>
-      <c r="BH7" s="89">
+      <c r="BH7" s="88">
         <f t="shared" si="1"/>
         <v>44152</v>
       </c>
-      <c r="BI7" s="89">
+      <c r="BI7" s="88">
         <f t="shared" si="1"/>
         <v>44153</v>
       </c>
-      <c r="BJ7" s="89">
+      <c r="BJ7" s="88">
         <f t="shared" si="1"/>
         <v>44154</v>
       </c>
-      <c r="BK7" s="89">
+      <c r="BK7" s="88">
         <f t="shared" si="1"/>
         <v>44155</v>
       </c>
-      <c r="BL7" s="89">
+      <c r="BL7" s="88">
         <f>+BK7+3</f>
         <v>44158</v>
       </c>
-      <c r="BM7" s="89">
+      <c r="BM7" s="88">
         <f t="shared" si="1"/>
         <v>44159</v>
       </c>
-      <c r="BN7" s="89">
+      <c r="BN7" s="88">
         <f t="shared" si="1"/>
         <v>44160</v>
       </c>
-      <c r="BO7" s="89">
+      <c r="BO7" s="88">
         <f t="shared" si="1"/>
         <v>44161</v>
       </c>
-      <c r="BP7" s="89">
+      <c r="BP7" s="88">
         <f t="shared" si="1"/>
         <v>44162</v>
       </c>
-      <c r="BQ7" s="86"/>
+      <c r="BQ7" s="85"/>
     </row>
     <row r="8" spans="1:69" ht="17.25" customHeight="1">
       <c r="A8" s="22"/>
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="126" t="s">
+      <c r="C8" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="126" t="s">
+      <c r="D8" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="126" t="s">
+      <c r="E8" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="126" t="s">
+      <c r="F8" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="126" t="s">
+      <c r="G8" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="128" t="s">
+      <c r="H8" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="114" t="s">
+      <c r="I8" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="105"/>
-      <c r="U8" s="105"/>
-      <c r="V8" s="105"/>
-      <c r="W8" s="105"/>
-      <c r="X8" s="115" t="s">
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="111"/>
+      <c r="U8" s="111"/>
+      <c r="V8" s="111"/>
+      <c r="W8" s="111"/>
+      <c r="X8" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="Y8" s="105"/>
-      <c r="Z8" s="105"/>
-      <c r="AA8" s="105"/>
-      <c r="AB8" s="105"/>
-      <c r="AC8" s="105"/>
-      <c r="AD8" s="105"/>
-      <c r="AE8" s="105"/>
-      <c r="AF8" s="105"/>
-      <c r="AG8" s="105"/>
-      <c r="AH8" s="105"/>
-      <c r="AI8" s="105"/>
-      <c r="AJ8" s="105"/>
-      <c r="AK8" s="105"/>
-      <c r="AL8" s="105"/>
-      <c r="AM8" s="122" t="s">
+      <c r="Y8" s="111"/>
+      <c r="Z8" s="111"/>
+      <c r="AA8" s="111"/>
+      <c r="AB8" s="111"/>
+      <c r="AC8" s="111"/>
+      <c r="AD8" s="111"/>
+      <c r="AE8" s="111"/>
+      <c r="AF8" s="111"/>
+      <c r="AG8" s="111"/>
+      <c r="AH8" s="111"/>
+      <c r="AI8" s="111"/>
+      <c r="AJ8" s="111"/>
+      <c r="AK8" s="111"/>
+      <c r="AL8" s="111"/>
+      <c r="AM8" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="AN8" s="105"/>
-      <c r="AO8" s="105"/>
-      <c r="AP8" s="105"/>
-      <c r="AQ8" s="105"/>
-      <c r="AR8" s="105"/>
-      <c r="AS8" s="105"/>
-      <c r="AT8" s="105"/>
-      <c r="AU8" s="105"/>
-      <c r="AV8" s="105"/>
-      <c r="AW8" s="105"/>
-      <c r="AX8" s="105"/>
-      <c r="AY8" s="105"/>
-      <c r="AZ8" s="105"/>
-      <c r="BA8" s="105"/>
-      <c r="BB8" s="104" t="s">
+      <c r="AN8" s="111"/>
+      <c r="AO8" s="111"/>
+      <c r="AP8" s="111"/>
+      <c r="AQ8" s="111"/>
+      <c r="AR8" s="111"/>
+      <c r="AS8" s="111"/>
+      <c r="AT8" s="111"/>
+      <c r="AU8" s="111"/>
+      <c r="AV8" s="111"/>
+      <c r="AW8" s="111"/>
+      <c r="AX8" s="111"/>
+      <c r="AY8" s="111"/>
+      <c r="AZ8" s="111"/>
+      <c r="BA8" s="111"/>
+      <c r="BB8" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="BC8" s="105"/>
-      <c r="BD8" s="105"/>
-      <c r="BE8" s="105"/>
-      <c r="BF8" s="105"/>
-      <c r="BG8" s="105"/>
-      <c r="BH8" s="105"/>
-      <c r="BI8" s="105"/>
-      <c r="BJ8" s="105"/>
-      <c r="BK8" s="105"/>
-      <c r="BL8" s="105"/>
-      <c r="BM8" s="105"/>
-      <c r="BN8" s="105"/>
-      <c r="BO8" s="105"/>
-      <c r="BP8" s="106"/>
+      <c r="BC8" s="111"/>
+      <c r="BD8" s="111"/>
+      <c r="BE8" s="111"/>
+      <c r="BF8" s="111"/>
+      <c r="BG8" s="111"/>
+      <c r="BH8" s="111"/>
+      <c r="BI8" s="111"/>
+      <c r="BJ8" s="111"/>
+      <c r="BK8" s="111"/>
+      <c r="BL8" s="111"/>
+      <c r="BM8" s="111"/>
+      <c r="BN8" s="111"/>
+      <c r="BO8" s="111"/>
+      <c r="BP8" s="120"/>
       <c r="BQ8" s="21"/>
     </row>
     <row r="9" spans="1:69" ht="17.25" customHeight="1">
       <c r="A9" s="23"/>
-      <c r="B9" s="125"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="107" t="s">
+      <c r="B9" s="114"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="110" t="s">
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="110" t="s">
+      <c r="O9" s="122"/>
+      <c r="P9" s="122"/>
+      <c r="Q9" s="122"/>
+      <c r="R9" s="123"/>
+      <c r="S9" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="T9" s="108"/>
-      <c r="U9" s="108"/>
-      <c r="V9" s="108"/>
-      <c r="W9" s="109"/>
-      <c r="X9" s="112" t="s">
+      <c r="T9" s="122"/>
+      <c r="U9" s="122"/>
+      <c r="V9" s="122"/>
+      <c r="W9" s="123"/>
+      <c r="X9" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="Y9" s="108"/>
-      <c r="Z9" s="108"/>
-      <c r="AA9" s="108"/>
-      <c r="AB9" s="109"/>
-      <c r="AC9" s="112" t="s">
+      <c r="Y9" s="122"/>
+      <c r="Z9" s="122"/>
+      <c r="AA9" s="122"/>
+      <c r="AB9" s="123"/>
+      <c r="AC9" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="AD9" s="108"/>
-      <c r="AE9" s="108"/>
-      <c r="AF9" s="108"/>
-      <c r="AG9" s="109"/>
-      <c r="AH9" s="112" t="s">
+      <c r="AD9" s="122"/>
+      <c r="AE9" s="122"/>
+      <c r="AF9" s="122"/>
+      <c r="AG9" s="123"/>
+      <c r="AH9" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="AI9" s="108"/>
-      <c r="AJ9" s="108"/>
-      <c r="AK9" s="108"/>
-      <c r="AL9" s="109"/>
-      <c r="AM9" s="113" t="s">
+      <c r="AI9" s="122"/>
+      <c r="AJ9" s="122"/>
+      <c r="AK9" s="122"/>
+      <c r="AL9" s="123"/>
+      <c r="AM9" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="AN9" s="108"/>
-      <c r="AO9" s="108"/>
-      <c r="AP9" s="108"/>
-      <c r="AQ9" s="109"/>
-      <c r="AR9" s="113" t="s">
+      <c r="AN9" s="122"/>
+      <c r="AO9" s="122"/>
+      <c r="AP9" s="122"/>
+      <c r="AQ9" s="123"/>
+      <c r="AR9" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="AS9" s="108"/>
-      <c r="AT9" s="108"/>
-      <c r="AU9" s="108"/>
-      <c r="AV9" s="109"/>
-      <c r="AW9" s="113" t="s">
+      <c r="AS9" s="122"/>
+      <c r="AT9" s="122"/>
+      <c r="AU9" s="122"/>
+      <c r="AV9" s="123"/>
+      <c r="AW9" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="AX9" s="108"/>
-      <c r="AY9" s="108"/>
-      <c r="AZ9" s="108"/>
-      <c r="BA9" s="109"/>
-      <c r="BB9" s="111" t="s">
+      <c r="AX9" s="122"/>
+      <c r="AY9" s="122"/>
+      <c r="AZ9" s="122"/>
+      <c r="BA9" s="123"/>
+      <c r="BB9" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="BC9" s="108"/>
-      <c r="BD9" s="108"/>
-      <c r="BE9" s="108"/>
-      <c r="BF9" s="109"/>
-      <c r="BG9" s="111" t="s">
+      <c r="BC9" s="122"/>
+      <c r="BD9" s="122"/>
+      <c r="BE9" s="122"/>
+      <c r="BF9" s="123"/>
+      <c r="BG9" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="BH9" s="108"/>
-      <c r="BI9" s="108"/>
-      <c r="BJ9" s="108"/>
-      <c r="BK9" s="109"/>
-      <c r="BL9" s="111" t="s">
+      <c r="BH9" s="122"/>
+      <c r="BI9" s="122"/>
+      <c r="BJ9" s="122"/>
+      <c r="BK9" s="123"/>
+      <c r="BL9" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="BM9" s="108"/>
-      <c r="BN9" s="108"/>
-      <c r="BO9" s="108"/>
-      <c r="BP9" s="109"/>
+      <c r="BM9" s="122"/>
+      <c r="BN9" s="122"/>
+      <c r="BO9" s="122"/>
+      <c r="BP9" s="123"/>
       <c r="BQ9" s="23"/>
     </row>
     <row r="10" spans="1:69" ht="17.25" customHeight="1">
       <c r="A10" s="24"/>
-      <c r="B10" s="125"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="129"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="118"/>
       <c r="I10" s="62" t="s">
         <v>26</v>
       </c>
@@ -3228,7 +3251,9 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H15" s="130"/>
+      <c r="H15" s="103">
+        <v>1</v>
+      </c>
       <c r="I15" s="50"/>
       <c r="J15" s="33"/>
       <c r="K15" s="34"/>
@@ -3303,12 +3328,12 @@
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
-      <c r="H16" s="76"/>
+      <c r="H16" s="131"/>
       <c r="I16" s="46"/>
       <c r="J16" s="44"/>
       <c r="K16" s="45"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="92"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="91"/>
       <c r="N16" s="57"/>
       <c r="O16" s="57"/>
       <c r="P16" s="57"/>
@@ -3388,12 +3413,14 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="H17" s="79"/>
+      <c r="H17" s="79">
+        <v>1</v>
+      </c>
       <c r="I17" s="48"/>
       <c r="J17" s="31"/>
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
-      <c r="M17" s="93"/>
+      <c r="M17" s="92"/>
       <c r="N17" s="42"/>
       <c r="O17" s="40"/>
       <c r="P17" s="40"/>
@@ -3473,12 +3500,14 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="H18" s="79"/>
+      <c r="H18" s="79">
+        <v>1</v>
+      </c>
       <c r="I18" s="50"/>
       <c r="J18" s="33"/>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
-      <c r="M18" s="93"/>
+      <c r="M18" s="92"/>
       <c r="N18" s="42"/>
       <c r="O18" s="40"/>
       <c r="P18" s="40"/>
@@ -3559,12 +3588,14 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="H19" s="79"/>
+      <c r="H19" s="79">
+        <v>0.1</v>
+      </c>
       <c r="I19" s="50"/>
       <c r="J19" s="33"/>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
-      <c r="M19" s="93"/>
+      <c r="M19" s="92"/>
       <c r="N19" s="42"/>
       <c r="O19" s="40"/>
       <c r="P19" s="40"/>
@@ -3583,8 +3614,8 @@
       <c r="AC19" s="42"/>
       <c r="AD19" s="40"/>
       <c r="AE19" s="40"/>
-      <c r="AF19" s="94"/>
-      <c r="AG19" s="95"/>
+      <c r="AF19" s="93"/>
+      <c r="AG19" s="94"/>
       <c r="AH19" s="43"/>
       <c r="AI19" s="34"/>
       <c r="AJ19" s="34"/>
@@ -3634,7 +3665,7 @@
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
-      <c r="H20" s="76"/>
+      <c r="H20" s="131"/>
       <c r="I20" s="46"/>
       <c r="J20" s="44"/>
       <c r="K20" s="45"/>
@@ -3719,7 +3750,7 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="H21" s="79"/>
+      <c r="H21" s="130"/>
       <c r="I21" s="48"/>
       <c r="J21" s="31"/>
       <c r="K21" s="32"/>
@@ -3744,7 +3775,7 @@
       <c r="AD21" s="32"/>
       <c r="AE21" s="32"/>
       <c r="AF21" s="32"/>
-      <c r="AG21" s="93"/>
+      <c r="AG21" s="92"/>
       <c r="AH21" s="42"/>
       <c r="AI21" s="40"/>
       <c r="AJ21" s="40"/>
@@ -3804,7 +3835,7 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="H22" s="79"/>
+      <c r="H22" s="130"/>
       <c r="I22" s="50"/>
       <c r="J22" s="33"/>
       <c r="K22" s="34"/>
@@ -3829,7 +3860,7 @@
       <c r="AD22" s="34"/>
       <c r="AE22" s="34"/>
       <c r="AF22" s="34"/>
-      <c r="AG22" s="93"/>
+      <c r="AG22" s="92"/>
       <c r="AH22" s="42"/>
       <c r="AI22" s="40"/>
       <c r="AJ22" s="40"/>
@@ -3889,7 +3920,9 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H23" s="79"/>
+      <c r="H23" s="79">
+        <v>0.2</v>
+      </c>
       <c r="I23" s="50"/>
       <c r="J23" s="33"/>
       <c r="K23" s="34"/>
@@ -3974,7 +4007,7 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H24" s="79"/>
+      <c r="H24" s="130"/>
       <c r="I24" s="50"/>
       <c r="J24" s="33"/>
       <c r="K24" s="34"/>
@@ -4049,7 +4082,7 @@
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
-      <c r="H25" s="76"/>
+      <c r="H25" s="131"/>
       <c r="I25" s="46"/>
       <c r="J25" s="44"/>
       <c r="K25" s="45"/>
@@ -4134,7 +4167,7 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H26" s="79"/>
+      <c r="H26" s="130"/>
       <c r="I26" s="48"/>
       <c r="J26" s="31"/>
       <c r="K26" s="32"/>
@@ -4220,7 +4253,7 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="H27" s="79"/>
+      <c r="H27" s="130"/>
       <c r="I27" s="48"/>
       <c r="J27" s="31"/>
       <c r="K27" s="32"/>
@@ -4306,7 +4339,7 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="H28" s="79"/>
+      <c r="H28" s="130"/>
       <c r="I28" s="50"/>
       <c r="J28" s="33"/>
       <c r="K28" s="34"/>
@@ -4362,7 +4395,7 @@
       <c r="BI28" s="40"/>
       <c r="BJ28" s="40"/>
       <c r="BK28" s="49"/>
-      <c r="BL28" s="96"/>
+      <c r="BL28" s="95"/>
       <c r="BM28" s="34"/>
       <c r="BN28" s="34"/>
       <c r="BO28" s="34"/>
@@ -4390,7 +4423,7 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H29" s="85"/>
+      <c r="H29" s="132"/>
       <c r="I29" s="53"/>
       <c r="J29" s="54"/>
       <c r="K29" s="55"/>
@@ -4446,11 +4479,11 @@
       <c r="BI29" s="55"/>
       <c r="BJ29" s="55"/>
       <c r="BK29" s="56"/>
-      <c r="BL29" s="97"/>
-      <c r="BM29" s="98"/>
-      <c r="BN29" s="98"/>
-      <c r="BO29" s="98"/>
-      <c r="BP29" s="99"/>
+      <c r="BL29" s="96"/>
+      <c r="BM29" s="97"/>
+      <c r="BN29" s="97"/>
+      <c r="BO29" s="97"/>
+      <c r="BP29" s="98"/>
       <c r="BQ29" s="27"/>
     </row>
     <row r="30" spans="1:69" ht="21" customHeight="1">
@@ -4668,6 +4701,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="BB8:BP8"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="BB9:BF9"/>
+    <mergeCell ref="BG9:BK9"/>
+    <mergeCell ref="BL9:BP9"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="AH9:AL9"/>
+    <mergeCell ref="AM9:AQ9"/>
+    <mergeCell ref="AR9:AV9"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="I8:W8"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="X8:AL8"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="I4:O4"/>
@@ -4684,120 +4732,15 @@
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="I6:O6"/>
     <mergeCell ref="P6:AA6"/>
-    <mergeCell ref="BB8:BP8"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="BB9:BF9"/>
-    <mergeCell ref="BG9:BK9"/>
-    <mergeCell ref="BL9:BP9"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="AH9:AL9"/>
-    <mergeCell ref="AM9:AQ9"/>
-    <mergeCell ref="AR9:AV9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="I8:W8"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="X8:AL8"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
-  <conditionalFormatting sqref="H27:H29 H12:H13 H16:H21 H23:H25">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF57BB8A"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27:H29 H12:H13 H16:H21 H23:H25">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF57BB8A"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF57BB8A"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF57BB8A"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H12:H29">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF57BB8A"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <color rgb="FF54D751"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/Диаграмма Ганта.xlsx
+++ b/Диаграмма Ганта.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P1lan\Desktop\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35204782-A2ED-4CA7-ACAD-F9B02364A41D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F060CB-C3C1-4E01-95A0-8CC62D2E56AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1343,6 +1343,43 @@
     <xf numFmtId="9" fontId="27" fillId="18" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1360,7 +1397,6 @@
     <xf numFmtId="0" fontId="21" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1376,42 +1412,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1478,9 +1478,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="H12:H29" headerRowCount="0" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="H12:H29" headerRowCount="0" headerRowDxfId="3" dataDxfId="2" totalsRowDxfId="1">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Диаграмма Ганта-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1798,7 +1798,7 @@
       <pane xSplit="8" ySplit="10" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="P29" sqref="P29"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -1892,21 +1892,21 @@
     </row>
     <row r="2" spans="1:69" ht="21" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
       <c r="O2" s="36"/>
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
@@ -2047,30 +2047,30 @@
       <c r="F4" s="102"/>
       <c r="G4" s="102"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="107" t="s">
+      <c r="I4" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="109" t="s">
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
-      <c r="X4" s="108"/>
-      <c r="Y4" s="108"/>
-      <c r="Z4" s="108"/>
-      <c r="AA4" s="108"/>
-      <c r="AB4" s="108"/>
+      <c r="Q4" s="123"/>
+      <c r="R4" s="123"/>
+      <c r="S4" s="123"/>
+      <c r="T4" s="123"/>
+      <c r="U4" s="123"/>
+      <c r="V4" s="123"/>
+      <c r="W4" s="123"/>
+      <c r="X4" s="123"/>
+      <c r="Y4" s="123"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="123"/>
+      <c r="AB4" s="123"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="10"/>
       <c r="AE4" s="10"/>
@@ -2126,29 +2126,29 @@
       <c r="F5" s="102"/>
       <c r="G5" s="102"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="107" t="s">
+      <c r="I5" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="112">
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
+      <c r="N5" s="123"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="126">
         <v>44050</v>
       </c>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
-      <c r="U5" s="108"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="108"/>
-      <c r="Z5" s="108"/>
-      <c r="AA5" s="108"/>
+      <c r="Q5" s="123"/>
+      <c r="R5" s="123"/>
+      <c r="S5" s="123"/>
+      <c r="T5" s="123"/>
+      <c r="U5" s="123"/>
+      <c r="V5" s="123"/>
+      <c r="W5" s="123"/>
+      <c r="X5" s="123"/>
+      <c r="Y5" s="123"/>
+      <c r="Z5" s="123"/>
+      <c r="AA5" s="123"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="1"/>
@@ -2205,25 +2205,25 @@
       <c r="F6" s="102"/>
       <c r="G6" s="102"/>
       <c r="H6" s="18"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="108"/>
-      <c r="Z6" s="108"/>
-      <c r="AA6" s="108"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="123"/>
+      <c r="R6" s="123"/>
+      <c r="S6" s="123"/>
+      <c r="T6" s="123"/>
+      <c r="U6" s="123"/>
+      <c r="V6" s="123"/>
+      <c r="W6" s="123"/>
+      <c r="X6" s="123"/>
+      <c r="Y6" s="123"/>
+      <c r="Z6" s="123"/>
+      <c r="AA6" s="123"/>
       <c r="AB6" s="19"/>
       <c r="AC6" s="17"/>
       <c r="AD6" s="1"/>
@@ -2520,201 +2520,201 @@
     </row>
     <row r="8" spans="1:69" ht="17.25" customHeight="1">
       <c r="A8" s="22"/>
-      <c r="B8" s="113" t="s">
+      <c r="B8" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="115" t="s">
+      <c r="D8" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="115" t="s">
+      <c r="E8" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="115" t="s">
+      <c r="F8" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="115" t="s">
+      <c r="G8" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="117" t="s">
+      <c r="H8" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="128" t="s">
+      <c r="I8" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="111"/>
-      <c r="T8" s="111"/>
-      <c r="U8" s="111"/>
-      <c r="V8" s="111"/>
-      <c r="W8" s="111"/>
-      <c r="X8" s="129" t="s">
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="108"/>
+      <c r="V8" s="108"/>
+      <c r="W8" s="108"/>
+      <c r="X8" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="Y8" s="111"/>
-      <c r="Z8" s="111"/>
-      <c r="AA8" s="111"/>
-      <c r="AB8" s="111"/>
-      <c r="AC8" s="111"/>
-      <c r="AD8" s="111"/>
-      <c r="AE8" s="111"/>
-      <c r="AF8" s="111"/>
-      <c r="AG8" s="111"/>
-      <c r="AH8" s="111"/>
-      <c r="AI8" s="111"/>
-      <c r="AJ8" s="111"/>
-      <c r="AK8" s="111"/>
-      <c r="AL8" s="111"/>
-      <c r="AM8" s="110" t="s">
+      <c r="Y8" s="108"/>
+      <c r="Z8" s="108"/>
+      <c r="AA8" s="108"/>
+      <c r="AB8" s="108"/>
+      <c r="AC8" s="108"/>
+      <c r="AD8" s="108"/>
+      <c r="AE8" s="108"/>
+      <c r="AF8" s="108"/>
+      <c r="AG8" s="108"/>
+      <c r="AH8" s="108"/>
+      <c r="AI8" s="108"/>
+      <c r="AJ8" s="108"/>
+      <c r="AK8" s="108"/>
+      <c r="AL8" s="108"/>
+      <c r="AM8" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="AN8" s="111"/>
-      <c r="AO8" s="111"/>
-      <c r="AP8" s="111"/>
-      <c r="AQ8" s="111"/>
-      <c r="AR8" s="111"/>
-      <c r="AS8" s="111"/>
-      <c r="AT8" s="111"/>
-      <c r="AU8" s="111"/>
-      <c r="AV8" s="111"/>
-      <c r="AW8" s="111"/>
-      <c r="AX8" s="111"/>
-      <c r="AY8" s="111"/>
-      <c r="AZ8" s="111"/>
-      <c r="BA8" s="111"/>
-      <c r="BB8" s="119" t="s">
+      <c r="AN8" s="108"/>
+      <c r="AO8" s="108"/>
+      <c r="AP8" s="108"/>
+      <c r="AQ8" s="108"/>
+      <c r="AR8" s="108"/>
+      <c r="AS8" s="108"/>
+      <c r="AT8" s="108"/>
+      <c r="AU8" s="108"/>
+      <c r="AV8" s="108"/>
+      <c r="AW8" s="108"/>
+      <c r="AX8" s="108"/>
+      <c r="AY8" s="108"/>
+      <c r="AZ8" s="108"/>
+      <c r="BA8" s="108"/>
+      <c r="BB8" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="BC8" s="111"/>
-      <c r="BD8" s="111"/>
-      <c r="BE8" s="111"/>
-      <c r="BF8" s="111"/>
-      <c r="BG8" s="111"/>
-      <c r="BH8" s="111"/>
-      <c r="BI8" s="111"/>
-      <c r="BJ8" s="111"/>
-      <c r="BK8" s="111"/>
-      <c r="BL8" s="111"/>
-      <c r="BM8" s="111"/>
-      <c r="BN8" s="111"/>
-      <c r="BO8" s="111"/>
-      <c r="BP8" s="120"/>
+      <c r="BC8" s="108"/>
+      <c r="BD8" s="108"/>
+      <c r="BE8" s="108"/>
+      <c r="BF8" s="108"/>
+      <c r="BG8" s="108"/>
+      <c r="BH8" s="108"/>
+      <c r="BI8" s="108"/>
+      <c r="BJ8" s="108"/>
+      <c r="BK8" s="108"/>
+      <c r="BL8" s="108"/>
+      <c r="BM8" s="108"/>
+      <c r="BN8" s="108"/>
+      <c r="BO8" s="108"/>
+      <c r="BP8" s="109"/>
       <c r="BQ8" s="21"/>
     </row>
     <row r="9" spans="1:69" ht="17.25" customHeight="1">
       <c r="A9" s="23"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="121" t="s">
+      <c r="B9" s="128"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="122"/>
-      <c r="M9" s="123"/>
-      <c r="N9" s="124" t="s">
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="122"/>
-      <c r="P9" s="122"/>
-      <c r="Q9" s="122"/>
-      <c r="R9" s="123"/>
-      <c r="S9" s="124" t="s">
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="112"/>
+      <c r="S9" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="T9" s="122"/>
-      <c r="U9" s="122"/>
-      <c r="V9" s="122"/>
-      <c r="W9" s="123"/>
-      <c r="X9" s="126" t="s">
+      <c r="T9" s="111"/>
+      <c r="U9" s="111"/>
+      <c r="V9" s="111"/>
+      <c r="W9" s="112"/>
+      <c r="X9" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="Y9" s="122"/>
-      <c r="Z9" s="122"/>
-      <c r="AA9" s="122"/>
-      <c r="AB9" s="123"/>
-      <c r="AC9" s="126" t="s">
+      <c r="Y9" s="111"/>
+      <c r="Z9" s="111"/>
+      <c r="AA9" s="111"/>
+      <c r="AB9" s="112"/>
+      <c r="AC9" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="AD9" s="122"/>
-      <c r="AE9" s="122"/>
-      <c r="AF9" s="122"/>
-      <c r="AG9" s="123"/>
-      <c r="AH9" s="126" t="s">
+      <c r="AD9" s="111"/>
+      <c r="AE9" s="111"/>
+      <c r="AF9" s="111"/>
+      <c r="AG9" s="112"/>
+      <c r="AH9" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="AI9" s="122"/>
-      <c r="AJ9" s="122"/>
-      <c r="AK9" s="122"/>
-      <c r="AL9" s="123"/>
-      <c r="AM9" s="127" t="s">
+      <c r="AI9" s="111"/>
+      <c r="AJ9" s="111"/>
+      <c r="AK9" s="111"/>
+      <c r="AL9" s="112"/>
+      <c r="AM9" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="AN9" s="122"/>
-      <c r="AO9" s="122"/>
-      <c r="AP9" s="122"/>
-      <c r="AQ9" s="123"/>
-      <c r="AR9" s="127" t="s">
+      <c r="AN9" s="111"/>
+      <c r="AO9" s="111"/>
+      <c r="AP9" s="111"/>
+      <c r="AQ9" s="112"/>
+      <c r="AR9" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="AS9" s="122"/>
-      <c r="AT9" s="122"/>
-      <c r="AU9" s="122"/>
-      <c r="AV9" s="123"/>
-      <c r="AW9" s="127" t="s">
+      <c r="AS9" s="111"/>
+      <c r="AT9" s="111"/>
+      <c r="AU9" s="111"/>
+      <c r="AV9" s="112"/>
+      <c r="AW9" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="AX9" s="122"/>
-      <c r="AY9" s="122"/>
-      <c r="AZ9" s="122"/>
-      <c r="BA9" s="123"/>
-      <c r="BB9" s="125" t="s">
+      <c r="AX9" s="111"/>
+      <c r="AY9" s="111"/>
+      <c r="AZ9" s="111"/>
+      <c r="BA9" s="112"/>
+      <c r="BB9" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="BC9" s="122"/>
-      <c r="BD9" s="122"/>
-      <c r="BE9" s="122"/>
-      <c r="BF9" s="123"/>
-      <c r="BG9" s="125" t="s">
+      <c r="BC9" s="111"/>
+      <c r="BD9" s="111"/>
+      <c r="BE9" s="111"/>
+      <c r="BF9" s="112"/>
+      <c r="BG9" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="BH9" s="122"/>
-      <c r="BI9" s="122"/>
-      <c r="BJ9" s="122"/>
-      <c r="BK9" s="123"/>
-      <c r="BL9" s="125" t="s">
+      <c r="BH9" s="111"/>
+      <c r="BI9" s="111"/>
+      <c r="BJ9" s="111"/>
+      <c r="BK9" s="112"/>
+      <c r="BL9" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="BM9" s="122"/>
-      <c r="BN9" s="122"/>
-      <c r="BO9" s="122"/>
-      <c r="BP9" s="123"/>
+      <c r="BM9" s="111"/>
+      <c r="BN9" s="111"/>
+      <c r="BO9" s="111"/>
+      <c r="BP9" s="112"/>
       <c r="BQ9" s="23"/>
     </row>
     <row r="10" spans="1:69" ht="17.25" customHeight="1">
       <c r="A10" s="24"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="118"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="132"/>
       <c r="I10" s="62" t="s">
         <v>26</v>
       </c>
@@ -3328,7 +3328,7 @@
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
-      <c r="H16" s="131"/>
+      <c r="H16" s="105"/>
       <c r="I16" s="46"/>
       <c r="J16" s="44"/>
       <c r="K16" s="45"/>
@@ -3589,7 +3589,7 @@
         <v>28</v>
       </c>
       <c r="H19" s="79">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I19" s="50"/>
       <c r="J19" s="33"/>
@@ -3665,7 +3665,7 @@
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
-      <c r="H20" s="131"/>
+      <c r="H20" s="105"/>
       <c r="I20" s="46"/>
       <c r="J20" s="44"/>
       <c r="K20" s="45"/>
@@ -3750,7 +3750,9 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="H21" s="130"/>
+      <c r="H21" s="79">
+        <v>1</v>
+      </c>
       <c r="I21" s="48"/>
       <c r="J21" s="31"/>
       <c r="K21" s="32"/>
@@ -3835,7 +3837,9 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="H22" s="130"/>
+      <c r="H22" s="79">
+        <v>1</v>
+      </c>
       <c r="I22" s="50"/>
       <c r="J22" s="33"/>
       <c r="K22" s="34"/>
@@ -3921,7 +3925,7 @@
         <v>5</v>
       </c>
       <c r="H23" s="79">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I23" s="50"/>
       <c r="J23" s="33"/>
@@ -4007,7 +4011,9 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H24" s="130"/>
+      <c r="H24" s="79">
+        <v>1</v>
+      </c>
       <c r="I24" s="50"/>
       <c r="J24" s="33"/>
       <c r="K24" s="34"/>
@@ -4082,7 +4088,7 @@
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
-      <c r="H25" s="131"/>
+      <c r="H25" s="105"/>
       <c r="I25" s="46"/>
       <c r="J25" s="44"/>
       <c r="K25" s="45"/>
@@ -4167,7 +4173,9 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H26" s="130"/>
+      <c r="H26" s="79">
+        <v>1</v>
+      </c>
       <c r="I26" s="48"/>
       <c r="J26" s="31"/>
       <c r="K26" s="32"/>
@@ -4253,7 +4261,7 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="H27" s="130"/>
+      <c r="H27" s="104"/>
       <c r="I27" s="48"/>
       <c r="J27" s="31"/>
       <c r="K27" s="32"/>
@@ -4339,7 +4347,7 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="H28" s="130"/>
+      <c r="H28" s="104"/>
       <c r="I28" s="50"/>
       <c r="J28" s="33"/>
       <c r="K28" s="34"/>
@@ -4423,7 +4431,7 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H29" s="132"/>
+      <c r="H29" s="106"/>
       <c r="I29" s="53"/>
       <c r="J29" s="54"/>
       <c r="K29" s="55"/>
@@ -4701,21 +4709,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="BB8:BP8"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="BB9:BF9"/>
-    <mergeCell ref="BG9:BK9"/>
-    <mergeCell ref="BL9:BP9"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="AH9:AL9"/>
-    <mergeCell ref="AM9:AQ9"/>
-    <mergeCell ref="AR9:AV9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="I8:W8"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="X8:AL8"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="I4:O4"/>
@@ -4732,6 +4725,21 @@
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="I6:O6"/>
     <mergeCell ref="P6:AA6"/>
+    <mergeCell ref="BB8:BP8"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="BB9:BF9"/>
+    <mergeCell ref="BG9:BK9"/>
+    <mergeCell ref="BL9:BP9"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="AH9:AL9"/>
+    <mergeCell ref="AM9:AQ9"/>
+    <mergeCell ref="AR9:AV9"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="I8:W8"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="X8:AL8"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="H12:H29">
